--- a/mst/チェックファイル_M_#10.xlsx
+++ b/mst/チェックファイル_M_#10.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\django\project\rewardsendsystem\mst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919352E9-58FE-4E6C-B21D-D2157D27AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A5F8F-3DB1-47A1-81EA-A714363D9928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="集計結果" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
+    <sheet name="etc" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">log!$B$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">log!$B$5:$D$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ログレベル</t>
   </si>
@@ -35,6 +36,17 @@
     <t>関数名:行番号</t>
     <rPh sb="4" eb="7">
       <t>ギョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンペーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -100,9 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -111,14 +129,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -400,6 +418,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:D5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1:D1 B2:B3 D2:D3 B4:D1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B1="警告"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B1="注意"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDE598B-6608-4C90-BFB7-0094ECCB6121}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -407,43 +490,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B3:D3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B1="注意"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B1="警告"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>